--- a/biology/Zoologie/Caïque_à_face_rousse/Caïque_à_face_rousse.xlsx
+++ b/biology/Zoologie/Caïque_à_face_rousse/Caïque_à_face_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_face_rousse</t>
+          <t>Caïque_à_face_rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hapalopsittaca amazonina
 Le Caïque à face rousse ou Caïque à face rouge (Hapalopsittaca amazonina) est une espèce d'oiseau appartenant à la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_face_rousse</t>
+          <t>Caïque_à_face_rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 23 cm de long. Le plumage a une dominante verte. Les rémiges sont bleues et les épaules et les rectrices sont rouges. Les iris sont jaune clair et les cercles oculaires bleu azur. Le bec est jaunâtre. Les pattes sont grises.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_face_rousse</t>
+          <t>Caïque_à_face_rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Caïque à face rouge est représenté par trois sous-espèces qui se distinguent par la coloration de la tête :
 amazonina avec la calotte, le front et les joues rouge nuancé de rouille, la zone entre le bec et les yeux jaune ainsi que des paillettes jaune d'or au niveau des zones périauriculaires ;
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ca%C3%AFque_%C3%A0_face_rousse</t>
+          <t>Caïque_à_face_rousse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit dans les forêts de montagnes entre 2 200 et 3 150 m d'altitude. On le trouve en Colombie (centre et est des Andes, nord-est) et au nord-ouest du Venezuela[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit dans les forêts de montagnes entre 2 200 et 3 150 m d'altitude. On le trouve en Colombie (centre et est des Andes, nord-est) et au nord-ouest du Venezuela.
 </t>
         </is>
       </c>
